--- a/data/trans_media/dukeAFECT-Habitat-trans_media.xlsx
+++ b/data/trans_media/dukeAFECT-Habitat-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,26; 90,53</t>
+          <t>84,84; 90,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81,98; 87,74</t>
+          <t>81,84; 88,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>81,02; 87,52</t>
+          <t>80,95; 87,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>77,59; 86,31</t>
+          <t>78,45; 86,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,26; 83,65</t>
+          <t>75,69; 83,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,6; 85,96</t>
+          <t>79,09; 86,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>77,46; 84,31</t>
+          <t>77,16; 84,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>82,64; 87,44</t>
+          <t>82,78; 87,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>81,48; 86,12</t>
+          <t>81,59; 86,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>81,47; 86,54</t>
+          <t>81,54; 86,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>80,38; 85,0</t>
+          <t>80,18; 84,99</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>81,69; 86,28</t>
+          <t>81,69; 86,13</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,31; 85,04</t>
+          <t>82,34; 85,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87,65; 90,11</t>
+          <t>87,72; 90,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,87; 82,73</t>
+          <t>79,73; 82,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,29; 85,96</t>
+          <t>82,32; 85,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>78,46; 81,94</t>
+          <t>78,75; 82,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>85,43; 87,92</t>
+          <t>85,61; 88,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>78,29; 81,28</t>
+          <t>78,13; 81,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>81,91; 84,75</t>
+          <t>82,16; 84,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>80,86; 83,14</t>
+          <t>80,92; 83,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>87,02; 88,84</t>
+          <t>86,95; 88,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>79,42; 81,75</t>
+          <t>79,6; 81,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>82,7; 84,85</t>
+          <t>82,63; 84,92</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>83,48; 85,92</t>
+          <t>83,51; 85,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,98; 86,99</t>
+          <t>85,0; 87,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,43; 84,4</t>
+          <t>82,43; 84,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,85; 87,69</t>
+          <t>83,59; 87,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>81,47; 84,05</t>
+          <t>81,52; 84,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>84,0; 86,01</t>
+          <t>84,09; 86,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,8; 83,7</t>
+          <t>81,71; 83,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,7; 83,8</t>
+          <t>81,63; 83,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>82,96; 84,71</t>
+          <t>82,89; 84,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>84,84; 86,27</t>
+          <t>84,88; 86,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>82,38; 83,84</t>
+          <t>82,36; 83,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>83,06; 85,41</t>
+          <t>83,02; 85,38</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,55; 87,53</t>
+          <t>84,45; 87,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,7; 87,32</t>
+          <t>84,79; 87,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,92; 81,25</t>
+          <t>78,82; 81,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,23; 86,86</t>
+          <t>84,29; 86,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,71; 85,56</t>
+          <t>82,7; 85,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,42; 85,92</t>
+          <t>83,51; 86,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>77,45; 79,72</t>
+          <t>77,53; 79,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>77,77; 85,47</t>
+          <t>77,43; 85,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>84,04; 86,08</t>
+          <t>84,11; 86,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>84,57; 86,31</t>
+          <t>84,55; 86,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>78,47; 80,15</t>
+          <t>78,45; 80,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>80,76; 85,58</t>
+          <t>80,7; 85,73</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,39; 84,81</t>
+          <t>82,46; 84,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>83,91; 86,0</t>
+          <t>83,8; 86,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82,6; 84,86</t>
+          <t>82,78; 85,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>82,73; 85,27</t>
+          <t>82,69; 85,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>80,87; 83,4</t>
+          <t>80,72; 83,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>82,08; 84,34</t>
+          <t>82,03; 84,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,58; 83,92</t>
+          <t>81,67; 84,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>82,87; 85,26</t>
+          <t>82,85; 85,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>81,87; 83,76</t>
+          <t>81,98; 83,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>83,33; 84,92</t>
+          <t>83,33; 84,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>82,49; 84,1</t>
+          <t>82,52; 84,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>83,2; 84,97</t>
+          <t>83,2; 84,91</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>84,05; 85,29</t>
+          <t>84,0; 85,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>85,72; 86,82</t>
+          <t>85,73; 86,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,94; 83,06</t>
+          <t>81,98; 83,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>84,06; 85,72</t>
+          <t>83,96; 85,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>81,65; 83,08</t>
+          <t>81,7; 83,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>84,1; 85,23</t>
+          <t>84,08; 85,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>80,79; 81,99</t>
+          <t>80,79; 81,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>81,65; 84,07</t>
+          <t>81,9; 84,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>83,01; 83,98</t>
+          <t>83,04; 84,02</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>85,09; 85,87</t>
+          <t>85,05; 85,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>81,5; 82,32</t>
+          <t>81,5; 82,33</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>83,26; 84,59</t>
+          <t>83,18; 84,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/dukeAFECT-Habitat-trans_media.xlsx
+++ b/data/trans_media/dukeAFECT-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>84,84; 90,28</t>
+          <t>85,15; 90,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81,84; 88,05</t>
+          <t>81,85; 87,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,95; 87,56</t>
+          <t>81,0; 87,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>75,69; 83,36</t>
+          <t>76,55; 83,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,09; 86,35</t>
+          <t>78,87; 86,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>77,16; 84,2</t>
+          <t>77,09; 84,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>81,59; 86,37</t>
+          <t>81,82; 86,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>81,54; 86,13</t>
+          <t>81,43; 86,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>80,18; 84,99</t>
+          <t>80,44; 85,2</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,34; 85,22</t>
+          <t>82,3; 85,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87,72; 90,14</t>
+          <t>87,71; 90,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,73; 82,75</t>
+          <t>79,75; 82,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>78,75; 82,34</t>
+          <t>78,56; 81,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>85,61; 88,3</t>
+          <t>85,54; 88,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>78,13; 81,29</t>
+          <t>78,14; 81,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>80,92; 83,16</t>
+          <t>81,0; 83,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>86,95; 88,76</t>
+          <t>86,94; 88,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>79,6; 81,63</t>
+          <t>79,57; 81,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>83,51; 85,86</t>
+          <t>83,49; 85,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,0; 87,07</t>
+          <t>85,05; 87,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,43; 84,52</t>
+          <t>82,46; 84,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>81,52; 84,03</t>
+          <t>81,4; 83,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>84,09; 86,11</t>
+          <t>84,11; 86,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,71; 83,8</t>
+          <t>81,69; 83,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>82,89; 84,78</t>
+          <t>82,82; 84,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>84,88; 86,28</t>
+          <t>84,87; 86,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>82,36; 83,79</t>
+          <t>82,34; 83,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,45; 87,49</t>
+          <t>84,45; 87,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,79; 87,36</t>
+          <t>84,83; 87,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,82; 81,07</t>
+          <t>78,85; 81,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,7; 85,59</t>
+          <t>82,74; 85,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,51; 86,1</t>
+          <t>83,45; 85,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>77,53; 79,81</t>
+          <t>77,45; 79,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>84,11; 86,1</t>
+          <t>84,1; 86,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>84,55; 86,33</t>
+          <t>84,49; 86,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>78,45; 80,04</t>
+          <t>78,46; 80,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,46; 84,89</t>
+          <t>82,36; 84,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>83,8; 86,06</t>
+          <t>83,87; 86,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82,78; 85,02</t>
+          <t>82,79; 85,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>80,72; 83,46</t>
+          <t>80,77; 83,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>82,03; 84,3</t>
+          <t>82,05; 84,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,67; 84,11</t>
+          <t>81,61; 84,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>81,98; 83,91</t>
+          <t>81,89; 83,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>83,33; 84,91</t>
+          <t>83,4; 84,93</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>82,52; 84,15</t>
+          <t>82,47; 84,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>84,0; 85,33</t>
+          <t>84,02; 85,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>85,73; 86,85</t>
+          <t>85,65; 86,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,98; 83,07</t>
+          <t>81,95; 83,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>81,7; 83,09</t>
+          <t>81,67; 83,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>84,08; 85,29</t>
+          <t>84,02; 85,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>80,79; 81,94</t>
+          <t>80,73; 81,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>83,04; 84,02</t>
+          <t>83,01; 83,98</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>85,05; 85,87</t>
+          <t>85,04; 85,86</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>81,5; 82,33</t>
+          <t>81,53; 82,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
